--- a/biology/Microbiologie/Mysophobie/Mysophobie.xlsx
+++ b/biology/Microbiologie/Mysophobie/Mysophobie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mysophobie[1] (du grec ancien : μύσος / músos « crime, souillure, impureté » et φόβος / phóbos « peur, phobie ») est une peur maladive et irrationnelle d'être en contact avec la saleté ou d'être contaminé par des microbes et des parasites. On parle aussi de germophobie[1], peur des germes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mysophobie (du grec ancien : μύσος / músos « crime, souillure, impureté » et φόβος / phóbos « peur, phobie ») est une peur maladive et irrationnelle d'être en contact avec la saleté ou d'être contaminé par des microbes et des parasites. On parle aussi de germophobie, peur des germes.
 Elle se manifeste par une réaction obsessionnelle qui se traduit par le besoin de se laver les mains (se désinfecter en général) par crainte d’être touché d’une quelconque maladie infectieuse (exemple avec le Covid-19 récemment). La mysophobie impacte la personne par de l’anxiété au quotidien.
 Elle est diagnostiquée comme étant un TOC (Trouble Obsessionnel Compulsif) figurant dans le DSM IV (Diagnostic and Statistical Manual of Mental Disorders) pour son caractère phobique.
 </t>
@@ -513,10 +525,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme de mysophobie a été utilisé pour la première fois par William A. Hammond en 1879 pour décrire plusieurs de ses patients souffrant d’un trouble obsessionnel compulsif qui les conduisait à se laver les mains de façon compulsive. En particulier, William A. Hammond présente le cas d’une patiente indiquant avoir développé ce trouble après avoir lu un article relatif à un homme qui aurait contracté la variole après avoir manipulé des billets de banque qui auraient précédemment dans la possession d’une personne malade[2].
-Le terme de mysophobie apparaît à nouveau quelques années plus tard dans un texte de Sigmund Freud de 1895 « Obsessions et phobies, leur mécanisme psychique et leur étiologie ». Sigmund Freud l’utilise pour décrire une femme « qui se lavait les mains cent fois par jour et ne touchait les loquets des portes que du coude »[3] 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme de mysophobie a été utilisé pour la première fois par William A. Hammond en 1879 pour décrire plusieurs de ses patients souffrant d’un trouble obsessionnel compulsif qui les conduisait à se laver les mains de façon compulsive. En particulier, William A. Hammond présente le cas d’une patiente indiquant avoir développé ce trouble après avoir lu un article relatif à un homme qui aurait contracté la variole après avoir manipulé des billets de banque qui auraient précédemment dans la possession d’une personne malade.
+Le terme de mysophobie apparaît à nouveau quelques années plus tard dans un texte de Sigmund Freud de 1895 « Obsessions et phobies, leur mécanisme psychique et leur étiologie ». Sigmund Freud l’utilise pour décrire une femme « qui se lavait les mains cent fois par jour et ne touchait les loquets des portes que du coude » 
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Symptomatologie[4]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs signes peuvent être pris en compte. Il y a les symptômes communs à d’autres phobies tels que de l’anxiété, des attaques de panique, des tremblements, des palpitations cardiaques, des pleurs, de la transpiration, un évitement conscient, … face à la situation ou à l’objet de la phobie.
 Des tensions, des attitudes de surcompensation, d’appréhension, des comportements contraphobiques ou de défis vont faire place à de l’anticipation anxieuse. Un isolement du sujet peut apparaître. L’évitement des situations entraîne des répercussions physiques, sociales, financières et médicales importantes comme la dépression.
@@ -581,7 +597,9 @@
           <t>Traitement/Prise en charge[5]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La mysophobie peut être associée à des TOC pour la plupart des cas. C’est pourquoi, afin que les troubles ne s’aggravent, il est important d’être suivi pluridisciplinairement.
 Différentes prises en charge peuvent s’effectuer en fonction du degré d’atteinte:
@@ -627,12 +645,14 @@
           <t>La crise sanitaire / Covid</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les germes du Covid19 se transmettent facilement et chacun souhaite se protéger comme il peut, au moyen d’un masque et en se lavant les mains.  Le fait de se laver fréquemment les mains avec de l’eau et du savon fait partie des mesures les plus économiques, les plus faciles et les plus importantes pour prévenir la propagation du virus. Toutefois, quand on est sujet à la phobie des germes, appelée mysophobie , la pandémie du coronavirus est plus difficile à vivre.
-Au moment du déconfinement, nous avons observé ce qui a été appelé le Syndrome de la cabane ou d’un phénomène semblable aux Hikikomori[6], qui implique un enfermement et un isolement ou syndrome de l’escargot[7], poussant les personnes à ne pas changer leurs habitudes, notamment de peur d’être confronté à une contamination, qui bien que vaccinés, restait encore possible.
-Il est évident que la pandémie a fait émerger des comportements pathologiques, et notamment a trouvé un terrain favorable aux personnes déjà atteintes de mysophobie. Certains témoignages peuvent l’attester: TOCs de propreté et Covid-19: « Ça exacerbe quelque chose qui était déjà présent » - URBANIA FR[8]
-Il a été également remarqué que les ventes de savons ont explosé dans un premier temps[9],[10] :
+Au moment du déconfinement, nous avons observé ce qui a été appelé le Syndrome de la cabane ou d’un phénomène semblable aux Hikikomori, qui implique un enfermement et un isolement ou syndrome de l’escargot, poussant les personnes à ne pas changer leurs habitudes, notamment de peur d’être confronté à une contamination, qui bien que vaccinés, restait encore possible.
+Il est évident que la pandémie a fait émerger des comportements pathologiques, et notamment a trouvé un terrain favorable aux personnes déjà atteintes de mysophobie. Certains témoignages peuvent l’attester: TOCs de propreté et Covid-19: « Ça exacerbe quelque chose qui était déjà présent » - URBANIA FR
+Il a été également remarqué que les ventes de savons ont explosé dans un premier temps, :
 Cette peur de la contamination en général a poussé des personnes atteintes de cette pathologie à se laver les mains de façon obsessionnelle, parfois pendant des heures mais non pas pour réduire le risque de contamination à cause de mains sales, mais bien pour se réconforter, en suivant un rituel précis, face à une peur irrationnelle, qui elle a trouvé son impulsion dans l’épidémie.
 Cependant, la  question de savoir si la pandémie a augmenté le nombre de cas de mysophobie, les psychologues semblent s’accorder sur le fait que le coronavirus n’a fait que mettre en valeur des comportements qui peuvent engager une pathologie dans le cas de personnalités prédisposées : un TOC ne se déclare pas du jour au lendemain. Il s’agit d’une action qui devient rituel, dans le but unique de trouver une réponse à une peur.
 </t>
